--- a/data/evaluation/evaluation_North_Autumn_Apples.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Apples.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2106.558718756421</v>
+        <v>2097.899707947223</v>
       </c>
       <c r="C4" t="n">
-        <v>7635037.22705204</v>
+        <v>7627641.070747605</v>
       </c>
       <c r="D4" t="n">
-        <v>2763.157112263441</v>
+        <v>2761.818435514472</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3225965865713083</v>
+        <v>0.3232527957524666</v>
       </c>
     </row>
     <row r="5">
